--- a/1° Bimestre/Aula 0228/Exercicios/dicio_empresa.xlsx
+++ b/1° Bimestre/Aula 0228/Exercicios/dicio_empresa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t xml:space="preserve">Tabela</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t xml:space="preserve">Finalidade do departamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endereço do departamento caso ele não fique na sede</t>
   </si>
 </sst>
 </file>
@@ -296,15 +302,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="5"/>
@@ -536,8 +542,32 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
+    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="n">
+        <v>255</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="33">
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
@@ -567,6 +597,10 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:L12"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>

--- a/1° Bimestre/Aula 0228/Exercicios/dicio_empresa.xlsx
+++ b/1° Bimestre/Aula 0228/Exercicios/dicio_empresa.xlsx
@@ -305,7 +305,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/1° Bimestre/Aula 0228/Exercicios/dicio_empresa.xlsx
+++ b/1° Bimestre/Aula 0228/Exercicios/dicio_empresa.xlsx
@@ -305,7 +305,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
